--- a/biology/Zoologie/Antillophos_elegans/Antillophos_elegans.xlsx
+++ b/biology/Zoologie/Antillophos_elegans/Antillophos_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antillophos elegans est une espèce fossile de mollusques gastéropodes marins de la famille des Nassariidae.
 Elle a été trouvée dans des terrains datant du Quaternaire au Costa Rica et au Mexique, du Pliocène au Costa Rica, en République Dominicaine, en Équateur, en Jamaïque, et du Miocène au Brésil et en République Dominicaine.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Antillophos elegans est décrite par Guppy en 1866 sous le protonyme Phos elegans[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Antillophos elegans est décrite par Guppy en 1866 sous le protonyme Phos elegans,.
 Phos elegans est renommé en Cantharus elegans par Olson en 1942. Il est renommé en Antillophos elegans par Hendy et al. en 2008. 
 </t>
         </is>
